--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed2/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1811</v>
+        <v>6.143100000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.922299999999999</v>
+        <v>-6.990299999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.536300000000004</v>
+        <v>9.373600000000005</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.033600000000005</v>
+        <v>9.180200000000008</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.534299999999997</v>
+        <v>-7.525800000000004</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.192899999999996</v>
+        <v>6.318399999999998</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.3707</v>
+        <v>-13.1133</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1843</v>
+        <v>-13.3039</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.56300000000001</v>
+        <v>-12.52050000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6417</v>
+        <v>-11.4033</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6403</v>
+        <v>-11.5478</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.37889999999999</v>
+        <v>-11.11369999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.340800000000001</v>
+        <v>5.149800000000002</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.766</v>
+        <v>-13.7441</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.88489999999999</v>
+        <v>-12.86819999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.070099999999996</v>
+        <v>4.853399999999995</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.59059999999999</v>
+        <v>-13.50789999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.531599999999996</v>
+        <v>-8.639799999999994</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.983799999999997</v>
+        <v>4.712899999999995</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.974999999999997</v>
+        <v>-7.807899999999998</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.185199999999996</v>
+        <v>5.432999999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.222199999999997</v>
+        <v>-7.244899999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.44790000000001</v>
+        <v>-12.22600000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.928700000000005</v>
+        <v>9.104200000000002</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.611599999999997</v>
+        <v>5.605</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.584599999999992</v>
+        <v>-7.698899999999994</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.67840000000001</v>
+        <v>-11.089</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.3031</v>
+        <v>-12.337</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.6311</v>
+        <v>5.519499999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.5984</v>
+        <v>-8.608099999999997</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.2529</v>
+        <v>-8.156700000000003</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.732899999999998</v>
+        <v>-7.862799999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
